--- a/biology/Médecine/Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)/Ministère_de_la_Santé_publique_(république_démocratique_du_Congo).xlsx
+++ b/biology/Médecine/Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)/Ministère_de_la_Santé_publique_(république_démocratique_du_Congo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_publique_(r%C3%A9publique_d%C3%A9mocratique_du_Congo)</t>
+          <t>Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ministère de la Santé publique est un ministère de la république démocratique du Congo chargé de l'organisation, de la création et du contrôle des services publics médicaux et pharmaceutiques. Samuel Roger Kamba Mulamba est l'actuel ministre de la Santé depuis mars 2023.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_publique_(r%C3%A9publique_d%C3%A9mocratique_du_Congo)</t>
+          <t>Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le système de santé publique congolais est inspiré du système de santé colonial belge. Le ministère est en grande partie une organisation de politique et de surveillance, avec des fonctions opérationnelles incarnées par un certain nombre d'organisations ministérielles subordonnées, notamment l'Institut de médecine tropicale, l'Institut national de recherche biomédicale et l'École de santé publique de Kinshasa. Cette dernière forme des médecins en santé publique, du personnel de l'infrastructure de santé publique composée de zones de santé, y compris les médecins de zone de santé qui fournissent à la fois des services de santé publique et une dotation partielle des hôpitaux de district. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_publique_(r%C3%A9publique_d%C3%A9mocratique_du_Congo)</t>
+          <t>Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Attributions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'organisation de l’enseignement technique médical du niveau secondaire;
 L'agrément et le contrôle technique des établissements privés médico-sanitaires, pharmaceutiques, laboratoires et d’enseignement médical technique;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_publique_(r%C3%A9publique_d%C3%A9mocratique_du_Congo)</t>
+          <t>Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le Ministère de la Santé publique compte un effectif total de 51 703 personnels qui sont repartis comme suit:
 Secrétariat général (49 837 personnels);
@@ -662,7 +680,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Minist%C3%A8re_de_la_Sant%C3%A9_publique_(r%C3%A9publique_d%C3%A9mocratique_du_Congo)</t>
+          <t>Ministère_de_la_Santé_publique_(république_démocratique_du_Congo)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -680,7 +698,9 @@
           <t>Liste des ministres récents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Listes des Ministres de la Santé de la Troisième République, sans inclure le gouvernement de transition : 
 </t>
